--- a/ESPN sports website/IPL/Punjab Kings/Mayank Agarwal (c).xlsx
+++ b/ESPN sports website/IPL/Punjab Kings/Mayank Agarwal (c).xlsx
@@ -445,31 +445,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C2" t="str">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <v>5</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
-      </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>20.00</v>
+        <v>55.55</v>
       </c>
       <c r="H2" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 01, 2022</v>
+        <v>April 08, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
+        <v>Titans won by 6 wickets</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C3" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>200.00</v>
+        <v>20.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 03, 2022</v>
+        <v>April 01, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C4" t="str">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4" t="str">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>133.33</v>
+        <v>160.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>March 27, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Punjab Kings won by 5 wickets (with 6 balls remaining)</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C5" t="str">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="str">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="str">
         <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
-        <v>85.71</v>
+        <v>147.05</v>
       </c>
       <c r="H5" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>April 25, 2022</v>
+        <v>April 29, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Punjab Kings won by 11 runs</v>
+        <v>Super Giants won by 20 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C6" t="str">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D6" t="str">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>55.55</v>
+        <v>133.33</v>
       </c>
       <c r="H6" t="str">
-        <v>Gujarat Titans</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>April 08, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Titans won by 6 wickets</v>
+        <v>Punjab Kings won by 5 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E7" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>25.00</v>
+        <v>118.75</v>
       </c>
       <c r="H7" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J7" t="str">
-        <v>May 22, 2022</v>
+        <v>May 13, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C8" t="str">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D8" t="str">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>160.00</v>
+        <v>25.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I8" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J8" t="str">
-        <v>April 20, 2022</v>
+        <v>May 22, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C9" t="str">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="str">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="str">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>118.75</v>
+        <v>115.38</v>
       </c>
       <c r="H9" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I9" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J9" t="str">
-        <v>May 13, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Royals won by 6 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C10" t="str">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D10" t="str">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E10" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>162.50</v>
+        <v>85.71</v>
       </c>
       <c r="H10" t="str">
-        <v>Mumbai Indians</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I10" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J10" t="str">
-        <v>April 13, 2022</v>
+        <v>April 25, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v>Punjab Kings won by 11 runs</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C11" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="str">
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
         <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>0.00</v>
+        <v>200.00</v>
       </c>
       <c r="H11" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I11" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J11" t="str">
-        <v>May 16, 2022</v>
+        <v>April 03, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Capitals won by 17 runs</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C12" t="str">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D12" t="str">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" t="str">
         <v>2</v>
       </c>
       <c r="G12" t="str">
-        <v>147.05</v>
+        <v>162.50</v>
       </c>
       <c r="H12" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I12" t="str">
         <v>Pune</v>
       </c>
       <c r="J12" t="str">
-        <v>April 29, 2022</v>
+        <v>April 13, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Super Giants won by 20 runs</v>
+        <v>Punjab Kings won by 12 runs</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Mayank Agarwal (c)</v>
       </c>
       <c r="C13" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E13" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="str">
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <v>115.38</v>
+        <v>0.00</v>
       </c>
       <c r="H13" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I13" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J13" t="str">
-        <v>May 07, 2022</v>
+        <v>May 16, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Royals won by 6 wickets (with 2 balls remaining)</v>
+        <v>Capitals won by 17 runs</v>
       </c>
     </row>
   </sheetData>
